--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60469AE6-B2C2-47E6-A284-ED0ECFA0DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2EE7B8-07AE-4C57-926B-7C0621761B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="930" windowWidth="19890" windowHeight="14670" activeTab="1" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="33300" yWindow="270" windowWidth="21300" windowHeight="14670" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
-    <sheet name="elem" sheetId="2" r:id="rId2"/>
+    <sheet name="DB_elem" sheetId="2" r:id="rId2"/>
+    <sheet name="elem" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">elem!$A$1:$L$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
     <author>AKIE01-2022</author>
   </authors>
   <commentList>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{49BFF9AB-CDE2-45E6-95E1-56642B00821D}">
+    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{49BFF9AB-CDE2-45E6-95E1-56642B00821D}">
       <text>
         <r>
           <rPr>
@@ -54,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{00CF8AFC-FD81-42B9-97B4-9BBDBBD46452}">
+    <comment ref="O31" authorId="0" shapeId="0" xr:uid="{00CF8AFC-FD81-42B9-97B4-9BBDBBD46452}">
       <text>
         <r>
           <rPr>
@@ -68,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{A27D6EFF-7D8F-4891-B872-FB2C86DD34D5}">
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{A27D6EFF-7D8F-4891-B872-FB2C86DD34D5}">
       <text>
         <r>
           <rPr>
@@ -82,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{B13B8023-EA7A-44D5-830E-C5D9C2CF5B44}">
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{B13B8023-EA7A-44D5-830E-C5D9C2CF5B44}">
       <text>
         <r>
           <rPr>
@@ -101,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -569,6 +573,413 @@
     <t>アミノ酸（g）</t>
     <rPh sb="3" eb="4">
       <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生食</t>
+    <rPh sb="0" eb="2">
+      <t>セイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜エルネオパNF1号輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜エルネオパNF2号輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛋白｜アミパレン輸液</t>
+    <rPh sb="0" eb="2">
+      <t>タンパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質｜イントラリポス輸液20％</t>
+    <rPh sb="0" eb="2">
+      <t>シシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜ビーフリード輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜ハイカリック液-1号</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜ハイカリック液-2号</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜ハイカリック液-3号</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸液｜YDソリタ-T1号輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ユエキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸液｜YDソリタ-T3号輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸液｜YDソリタ-T3号G輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸液｜ソリタ-T4号輸液</t>
+    <rPh sb="0" eb="2">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛋白｜アミノレバン点滴静注</t>
+    <rPh sb="0" eb="2">
+      <t>タンパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛋白｜キドミン輸液</t>
+    <rPh sb="0" eb="2">
+      <t>タンパク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛋白｜プレアミン-P注射液</t>
+    <rPh sb="0" eb="2">
+      <t>タンパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜塩化Na補正液1mEq/mL</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜大塚食塩注10%</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショクエン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜硫酸Mg補正液1mEq/mL</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜塩化Ca補正液1mEq/mL</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜リン酸Na補正液0.5mmol/mL</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜カルチコール注射液8.5％</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸液｜生食</t>
+    <rPh sb="0" eb="2">
+      <t>ユエキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖質｜5%ブドウ糖注</t>
+    <rPh sb="0" eb="2">
+      <t>トウシツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖質｜10%ブドウ糖注</t>
+    <rPh sb="0" eb="2">
+      <t>トウシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖質｜20%ブドウ糖注</t>
+    <rPh sb="0" eb="2">
+      <t>トウシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖質｜50%ブドウ糖注</t>
+    <rPh sb="0" eb="2">
+      <t>トウシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖質｜70%ブドウ糖注</t>
+    <rPh sb="0" eb="2">
+      <t>トウシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜エンシュア･H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜エネーボ配合経腸用液</t>
+    <rPh sb="7" eb="9">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜ラコールNF配合経腸用液</t>
+    <rPh sb="9" eb="11">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜ラコールNF配合経腸用半固形剤</t>
+    <rPh sb="9" eb="11">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜アミノレバンEN配合散（1包/200mL）</t>
+    <rPh sb="16" eb="17">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜エレンタール（1包/250mL）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜注射用水</t>
+    <rPh sb="0" eb="2">
+      <t>ホエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜KCL注20mEqキット「テルモ」 </t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電解｜アスパラギン酸カリウム注10mEqキット「テルモ」(10mL) </t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜イノラス配合経腸用液</t>
+    <rPh sb="7" eb="9">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -719,13 +1130,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>362769</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1059,13 +1470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED4D603-50C3-490D-BFA1-F7765C4DA5D3}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1261,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S34" si="4">SUM(P3:R3)</f>
+        <f t="shared" ref="S3:S35" si="4">SUM(P3:R3)</f>
         <v>1230</v>
       </c>
       <c r="T3" s="2">
@@ -1684,15 +2095,15 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P34" si="6">C10*4</f>
+        <f t="shared" ref="P10:P35" si="6">C10*4</f>
         <v>20.8</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q34" si="7">D10*4</f>
+        <f t="shared" ref="Q10:Q35" si="7">D10*4</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10:R34" si="8">E10*9</f>
+        <f t="shared" ref="R10:R35" si="8">E10*9</f>
         <v>0</v>
       </c>
       <c r="S10" s="2">
@@ -1700,7 +2111,7 @@
         <v>20.8</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" ref="T10:T34" si="9">P10+R10</f>
+        <f t="shared" ref="T10:T35" si="9">P10+R10</f>
         <v>20.8</v>
       </c>
     </row>
@@ -2084,10 +2495,10 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -2108,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -2119,33 +2530,14 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>20</v>
@@ -2169,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -2206,7 +2598,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>20</v>
@@ -2230,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -2239,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
@@ -2267,7 +2659,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>20</v>
@@ -2297,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>20</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
@@ -2328,7 +2720,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
@@ -2352,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -2389,10 +2781,10 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -2413,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -2450,13 +2842,13 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2467,11 +2859,11 @@
       <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="5">
-        <v>4</v>
+      <c r="G23" s="2">
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2480,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -2490,34 +2882,34 @@
       </c>
       <c r="P23">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>E23*9</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2528,11 +2920,11 @@
       <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="2">
-        <v>200</v>
+      <c r="G24" s="5">
+        <v>4</v>
       </c>
       <c r="H24" s="2">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2551,34 +2943,34 @@
       </c>
       <c r="P24">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="8"/>
+        <f>E24*9</f>
         <v>0</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="9"/>
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -2590,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="H25" s="2">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -2612,7 +3004,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
@@ -2624,22 +3016,22 @@
       </c>
       <c r="S25" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="T25" s="2">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>20</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2651,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -2673,7 +3065,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q26">
         <f t="shared" si="7"/>
@@ -2685,22 +3077,22 @@
       </c>
       <c r="S26" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -2712,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -2734,7 +3126,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Q27">
         <f t="shared" si="7"/>
@@ -2746,511 +3138,531 @@
       </c>
       <c r="S27" s="2">
         <f t="shared" si="4"/>
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="9"/>
-        <v>980</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="C28" s="2">
-        <v>26.53</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>6.44</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="H28" s="2">
-        <v>164.08</v>
+        <v>980</v>
       </c>
       <c r="I28" s="2">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" ref="O28" si="11">H28/F28</f>
-        <v>131.26400000000001</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <f t="shared" si="6"/>
-        <v>106.12</v>
+        <v>980</v>
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <f t="shared" si="8"/>
-        <v>57.96</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" si="4"/>
-        <v>196.08</v>
+        <v>980</v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="9"/>
-        <v>164.08</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C29" s="2">
-        <v>51.5</v>
+        <v>26.53</v>
       </c>
       <c r="D29" s="2">
-        <v>13.2</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2">
-        <v>13.2</v>
+        <v>6.44</v>
       </c>
       <c r="F29" s="2">
-        <v>2.0699999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="G29" s="2">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="H29" s="2">
-        <v>324.8</v>
+        <v>164.08</v>
       </c>
       <c r="I29" s="2">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="J29" s="2">
-        <v>14.3</v>
+        <v>9.4</v>
       </c>
       <c r="K29" s="2">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="L29" s="2">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="O29" s="2">
-        <v>157</v>
+      <c r="O29" s="6">
+        <f t="shared" ref="O29" si="11">H29/F29</f>
+        <v>131.26400000000001</v>
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>106.12</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
-        <v>52.8</v>
+        <v>32</v>
       </c>
       <c r="R29">
         <f t="shared" si="8"/>
-        <v>118.8</v>
+        <v>57.96</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" si="4"/>
-        <v>377.6</v>
+        <v>196.08</v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="9"/>
-        <v>324.8</v>
+        <v>164.08</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>250</v>
       </c>
       <c r="C30" s="2">
-        <v>39.6</v>
+        <v>51.5</v>
       </c>
       <c r="D30" s="2">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="E30" s="2">
-        <v>9.6</v>
+        <v>13.2</v>
       </c>
       <c r="F30" s="2">
-        <v>2.11</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G30" s="2">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="H30" s="2">
-        <v>244.8</v>
+        <v>324.8</v>
       </c>
       <c r="I30" s="2">
+        <v>13</v>
+      </c>
+      <c r="J30" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="K30" s="2">
         <v>10</v>
       </c>
-      <c r="J30" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="K30" s="2">
-        <v>14.5</v>
-      </c>
       <c r="L30" s="2">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>158.4</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="R30">
         <f t="shared" si="8"/>
-        <v>86.399999999999991</v>
+        <v>118.8</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" si="4"/>
-        <v>298.8</v>
+        <v>377.6</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="9"/>
-        <v>244.8</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>250</v>
+      </c>
+      <c r="C31" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="G31" s="2">
+        <v>300</v>
+      </c>
+      <c r="H31" s="2">
+        <v>244.8</v>
+      </c>
+      <c r="I31" s="2">
         <v>10</v>
       </c>
-      <c r="B31" s="2">
-        <v>200</v>
-      </c>
-      <c r="C31" s="2">
-        <v>31.24</v>
-      </c>
-      <c r="D31" s="2">
-        <v>8.76</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4.46</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="G31" s="2">
-        <v>200</v>
-      </c>
-      <c r="H31" s="2">
-        <v>165.1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>6.4</v>
-      </c>
       <c r="J31" s="2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="K31" s="2">
-        <v>4.4000000000000004</v>
+        <v>14.5</v>
       </c>
       <c r="L31" s="2">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" ref="O31" si="12">H31/F31</f>
-        <v>119.6376811594203</v>
+      <c r="O31" s="2">
+        <v>116</v>
       </c>
       <c r="P31">
         <f t="shared" si="6"/>
-        <v>124.96</v>
+        <v>158.4</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>35.04</v>
+        <v>54</v>
       </c>
       <c r="R31">
         <f t="shared" si="8"/>
-        <v>40.14</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="S31" s="2">
         <f t="shared" si="4"/>
-        <v>200.14</v>
+        <v>298.8</v>
       </c>
       <c r="T31" s="2">
-        <f>P31+R31</f>
-        <v>165.1</v>
+        <f t="shared" si="9"/>
+        <v>244.8</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C32" s="2">
-        <v>46.86</v>
+        <v>31.24</v>
       </c>
       <c r="D32" s="2">
-        <v>13.14</v>
+        <v>8.76</v>
       </c>
       <c r="E32" s="2">
-        <v>6.69</v>
+        <v>4.46</v>
       </c>
       <c r="F32" s="2">
-        <v>2.0699999999999998</v>
+        <v>1.38</v>
       </c>
       <c r="G32" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H32" s="2">
-        <v>247.65</v>
+        <v>165.1</v>
       </c>
       <c r="I32" s="2">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="J32" s="2">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="2">
-        <v>6.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L32" s="2">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <f>H32/F32</f>
+        <f t="shared" ref="O32" si="12">H32/F32</f>
         <v>119.6376811594203</v>
       </c>
       <c r="P32">
         <f t="shared" si="6"/>
-        <v>187.44</v>
+        <v>124.96</v>
       </c>
       <c r="Q32">
         <f t="shared" si="7"/>
-        <v>52.56</v>
+        <v>35.04</v>
       </c>
       <c r="R32">
         <f t="shared" si="8"/>
+        <v>40.14</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="4"/>
+        <v>200.14</v>
+      </c>
+      <c r="T32" s="2">
+        <f>P32+R32</f>
+        <v>165.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>300</v>
+      </c>
+      <c r="C33" s="2">
+        <v>46.86</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13.14</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6.69</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G33" s="2">
+        <v>300</v>
+      </c>
+      <c r="H33" s="2">
+        <v>247.65</v>
+      </c>
+      <c r="I33" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="J33" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <f>H33/F33</f>
+        <v>119.6376811594203</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>187.44</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>52.56</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
         <v>60.21</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f t="shared" si="4"/>
         <v>300.20999999999998</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f t="shared" si="9"/>
         <v>247.65</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:20">
+      <c r="A34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2">
         <v>200</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>31.5</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>13.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>3.7</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>2.16</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <v>213</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <v>159.30000000000001</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I34" s="2">
         <v>1.7</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J34" s="2">
         <v>5.42</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K34" s="2">
         <v>2.91</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L34" s="2">
         <v>1.66</v>
       </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>73.75</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="Q33">
+      <c r="Q34">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <f t="shared" si="8"/>
         <v>33.300000000000004</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S34" s="2">
         <f t="shared" si="4"/>
         <v>213.3</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T34" s="2">
         <f t="shared" si="9"/>
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:20">
+      <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <v>300</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>63.4</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>14.1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>0.51</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>300</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <v>258.10000000000002</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="2">
         <v>11.3</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J35" s="2">
         <v>5.55</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K35" s="2">
         <v>12.92</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L35" s="2">
         <v>3.29</v>
       </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
         <v>129.05000000000001</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <f t="shared" si="6"/>
         <v>253.6</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <f t="shared" si="7"/>
         <v>56.4</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <f t="shared" si="8"/>
         <v>4.59</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S35" s="2">
         <f t="shared" si="4"/>
         <v>314.58999999999997</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T35" s="2">
         <f t="shared" si="9"/>
         <v>258.19</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="36" spans="1:20">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -3274,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -3288,42 +3700,83 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>10</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>10</v>
       </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3339,13 +3792,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7C856-4D92-4C40-A383-D2F62D797670}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3989,7 +4442,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -4013,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>1</v>
+        <v>0.154</v>
       </c>
       <c r="J17" s="8">
         <v>0</v>
@@ -4028,7 +4481,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -4052,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="J18" s="8">
         <v>0</v>
@@ -4067,7 +4520,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -4091,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -4100,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -4136,16 +4589,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -4169,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="8">
         <v>0</v>
@@ -4184,7 +4637,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -4208,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J22" s="8">
         <v>0</v>
       </c>
       <c r="K22" s="8">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L22" s="8">
         <v>0</v>
@@ -4223,13 +4676,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -4241,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="8">
         <v>0</v>
@@ -4253,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L23" s="8">
         <v>0</v>
@@ -4262,13 +4715,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -4280,10 +4733,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H24" s="8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24" s="8">
         <v>0</v>
@@ -4301,13 +4754,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -4319,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H25" s="8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
@@ -4340,13 +4793,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
       </c>
       <c r="C26" s="8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -4358,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" s="8">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
@@ -4379,13 +4832,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
@@ -4397,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H27" s="8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
@@ -4418,163 +4871,163 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
       </c>
       <c r="C28" s="8">
-        <v>0.21224000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D28" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>5.1520000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H28" s="8">
-        <v>1.31264</v>
+        <v>2.8</v>
       </c>
       <c r="I28" s="8">
-        <v>6.2399999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8">
-        <v>7.5200000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="8">
-        <v>7.1199999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L28" s="8">
-        <v>5.4399999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
       </c>
       <c r="C29" s="8">
-        <v>0.20599999999999999</v>
+        <v>0.21224000000000001</v>
       </c>
       <c r="D29" s="8">
-        <v>5.28E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E29" s="8">
-        <v>5.28E-2</v>
+        <v>5.1520000000000003E-2</v>
       </c>
       <c r="F29" s="8">
-        <v>8.2799999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G29" s="8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H29" s="8">
-        <v>1.2992000000000001</v>
+        <v>1.31264</v>
       </c>
       <c r="I29" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="J29" s="8">
-        <v>5.7200000000000001E-2</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="K29" s="8">
-        <v>0.04</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="L29" s="8">
-        <v>2.4799999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
       </c>
       <c r="C30" s="8">
-        <v>0.15840000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D30" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="E30" s="8">
-        <v>3.8399999999999997E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="F30" s="8">
-        <v>8.4399999999999996E-3</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="G30" s="8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H30" s="8">
-        <v>0.97920000000000007</v>
+        <v>1.2992000000000001</v>
       </c>
       <c r="I30" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="K30" s="8">
         <v>0.04</v>
       </c>
-      <c r="J30" s="8">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="K30" s="8">
-        <v>5.8000000000000003E-2</v>
-      </c>
       <c r="L30" s="8">
-        <v>1.72E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
       </c>
       <c r="C31" s="8">
-        <v>0.15620000000000001</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="D31" s="8">
-        <v>4.3799999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E31" s="8">
-        <v>2.23E-2</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="F31" s="8">
-        <v>6.8999999999999999E-3</v>
+        <v>8.4399999999999996E-3</v>
       </c>
       <c r="G31" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H31" s="8">
-        <v>0.82550000000000001</v>
+        <v>0.97920000000000007</v>
       </c>
       <c r="I31" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J31" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="K31" s="8">
-        <v>2.2000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="L31" s="8">
-        <v>1.6E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -4604,7 +5057,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K32" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="L32" s="8">
         <v>1.6E-2</v>
@@ -4613,124 +5066,124 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>0.1575</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="D33" s="8">
-        <v>6.7500000000000004E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="E33" s="8">
-        <v>1.8500000000000003E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="F33" s="8">
-        <v>1.0800000000000001E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G33" s="8">
-        <v>1.0649999999999999</v>
+        <v>1</v>
       </c>
       <c r="H33" s="8">
-        <v>0.7965000000000001</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="I33" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J33" s="8">
-        <v>2.7099999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K33" s="8">
-        <v>1.455E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="L33" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <v>0.21133333333333332</v>
+        <v>0.1575</v>
       </c>
       <c r="D34" s="8">
-        <v>4.7E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="E34" s="8">
-        <v>1.7000000000000001E-3</v>
+        <v>1.8500000000000003E-2</v>
       </c>
       <c r="F34" s="8">
-        <v>6.6666666666666671E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G34" s="8">
-        <v>1</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="H34" s="8">
-        <v>0.86033333333333339</v>
+        <v>0.7965000000000001</v>
       </c>
       <c r="I34" s="8">
-        <v>3.7666666666666668E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="J34" s="8">
-        <v>1.8499999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="K34" s="8">
-        <v>4.306666666666667E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="L34" s="8">
-        <v>1.0966666666666666E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
       </c>
       <c r="C35" s="8">
-        <v>0</v>
+        <v>0.21133333333333332</v>
       </c>
       <c r="D35" s="8">
-        <v>0</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E35" s="8">
-        <v>0</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="F35" s="8">
-        <v>0</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="G35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8">
-        <v>0</v>
+        <v>0.86033333333333339</v>
       </c>
       <c r="I35" s="8">
-        <v>0</v>
+        <v>3.7666666666666668E-2</v>
       </c>
       <c r="J35" s="8">
-        <v>0</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="K35" s="8">
-        <v>0</v>
+        <v>4.306666666666667E-2</v>
       </c>
       <c r="L35" s="8">
-        <v>0</v>
+        <v>1.0966666666666666E-2</v>
       </c>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -4757,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="8">
         <v>0</v>
@@ -4769,42 +5222,81 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>1</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8"/>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4812,4 +5304,1525 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3.1333333333333335E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5.0666666666666664E-3</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.2142857142857143E-2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.2142857142857143E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.2142857142857143E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7.2050000000000003E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.175E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.3196</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.154</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.105</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I29" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.1575</v>
+      </c>
+      <c r="D32" s="8">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.8500000000000003E-2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.7965000000000001</v>
+      </c>
+      <c r="I32" s="8">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1.455E-2</v>
+      </c>
+      <c r="L32" s="8">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.21224000000000001</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5.1520000000000003E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1.31264</v>
+      </c>
+      <c r="I33" s="8">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="J33" s="8">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="L33" s="8">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <v>8.4399999999999996E-3</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.97920000000000007</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="J34" s="8">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1.72E-2</v>
+      </c>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.21133333333333332</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F35" s="8">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.86033333333333339</v>
+      </c>
+      <c r="I35" s="8">
+        <v>3.7666666666666668E-2</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>4.306666666666667E-2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1.0966666666666666E-2</v>
+      </c>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D36" s="8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="I36" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J36" s="8">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="L36" s="8">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F37" s="8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="D38" s="8">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F38" s="8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="I38" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M38" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L38" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
+      <sortCondition ref="A2:A38" customList="総合,蛋白,糖質,電解,補液,経口"/>
+    </sortState>
+  </autoFilter>
+  <dataConsolidate/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2EE7B8-07AE-4C57-926B-7C0621761B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C058509-44C2-4376-A28C-1520A5072833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="270" windowWidth="21300" windowHeight="14670" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="3870" yWindow="1935" windowWidth="21600" windowHeight="12195" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="F41" authorId="0" shapeId="0" xr:uid="{B74EDD2C-3A55-4A62-A5E6-7AC81D2DB504}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>NPC/Nから逆算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0" shapeId="0" xr:uid="{95D87427-99C5-4083-A345-24EFE9B907E4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>NPC/Nより逆算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{4976E1AC-DF58-4891-B71A-B01328370464}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>NPC/Nから逆算</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -983,12 +1025,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ペプタメンST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペプタメンAF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイソカルサポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜ペプタメンST</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜ペプタメンAF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜アイソカルサポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,6 +1110,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1076,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,6 +1183,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1128,16 +1207,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>362769</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>133895</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>124644</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>67220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,7 +1239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13134975" y="8848725"/>
+          <a:off x="12211050" y="11639550"/>
           <a:ext cx="5868219" cy="3905795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1470,13 +1549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED4D603-50C3-490D-BFA1-F7765C4DA5D3}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3780,6 +3859,260 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="10">
+        <v>200</v>
+      </c>
+      <c r="C41" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="E41" s="10">
+        <v>12</v>
+      </c>
+      <c r="F41" s="10">
+        <f>H41/150</f>
+        <v>1.72</v>
+      </c>
+      <c r="G41" s="10">
+        <v>300</v>
+      </c>
+      <c r="H41" s="10">
+        <v>258</v>
+      </c>
+      <c r="I41" s="10">
+        <f>429/23</f>
+        <v>18.652173913043477</v>
+      </c>
+      <c r="J41" s="10">
+        <f>320/39.1</f>
+        <v>8.1841432225063944</v>
+      </c>
+      <c r="K41" s="10">
+        <f>210/40.1*2</f>
+        <v>10.473815461346634</v>
+      </c>
+      <c r="L41" s="10">
+        <f>96/24.3*2</f>
+        <v>7.9012345679012341</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10">
+        <v>150</v>
+      </c>
+      <c r="P41" s="10">
+        <f>C41*4</f>
+        <v>150</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" ref="Q41:R41" si="13">D41*4</f>
+        <v>42</v>
+      </c>
+      <c r="R41" s="10">
+        <f>E41*9</f>
+        <v>108</v>
+      </c>
+      <c r="S41" s="10">
+        <f>SUM(P41:R41)</f>
+        <v>300</v>
+      </c>
+      <c r="T41" s="10">
+        <f t="shared" ref="T41" si="14">P41+R41</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="10">
+        <v>200</v>
+      </c>
+      <c r="C42" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="D42" s="10">
+        <v>19</v>
+      </c>
+      <c r="E42" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="F42" s="10">
+        <f>H42/O42</f>
+        <v>3.0324324324324325</v>
+      </c>
+      <c r="G42" s="10">
+        <v>300</v>
+      </c>
+      <c r="H42" s="10">
+        <v>224.4</v>
+      </c>
+      <c r="I42" s="10">
+        <f>526/23</f>
+        <v>22.869565217391305</v>
+      </c>
+      <c r="J42" s="10">
+        <f>464/39.1</f>
+        <v>11.867007672634271</v>
+      </c>
+      <c r="K42" s="10">
+        <f>202/40.1*2</f>
+        <v>10.074812967581048</v>
+      </c>
+      <c r="L42" s="10">
+        <f>64/24.3*2</f>
+        <v>5.2674897119341564</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10">
+        <v>74</v>
+      </c>
+      <c r="P42" s="10">
+        <f>C42*4</f>
+        <v>105.6</v>
+      </c>
+      <c r="Q42" s="10">
+        <f t="shared" ref="Q42" si="15">D42*4</f>
+        <v>76</v>
+      </c>
+      <c r="R42" s="10">
+        <f>E42*9</f>
+        <v>118.8</v>
+      </c>
+      <c r="S42" s="10">
+        <f>SUM(P42:R42)</f>
+        <v>300.39999999999998</v>
+      </c>
+      <c r="T42" s="10">
+        <f t="shared" ref="T42" si="16">P42+R42</f>
+        <v>224.39999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="10">
+        <v>200</v>
+      </c>
+      <c r="C43" s="10">
+        <v>30.6</v>
+      </c>
+      <c r="D43" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="E43" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="F43" s="10">
+        <f>H43/O43</f>
+        <v>1.7614285714285713</v>
+      </c>
+      <c r="G43" s="10">
+        <v>300</v>
+      </c>
+      <c r="H43" s="10">
+        <v>246.6</v>
+      </c>
+      <c r="I43" s="10">
+        <f>90/23</f>
+        <v>3.9130434782608696</v>
+      </c>
+      <c r="J43" s="10">
+        <f>80/39.1</f>
+        <v>2.0460358056265986</v>
+      </c>
+      <c r="K43" s="10">
+        <f>75/40.1*2</f>
+        <v>3.7406483790523688</v>
+      </c>
+      <c r="L43" s="10">
+        <f>32/24.3*2</f>
+        <v>2.6337448559670782</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10">
+        <v>140</v>
+      </c>
+      <c r="P43" s="10">
+        <f>C43*4</f>
+        <v>122.4</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" ref="Q43" si="17">D43*4</f>
+        <v>45.6</v>
+      </c>
+      <c r="R43" s="10">
+        <f>E43*9</f>
+        <v>124.2</v>
+      </c>
+      <c r="S43" s="10">
+        <f>SUM(P43:R43)</f>
+        <v>292.2</v>
+      </c>
+      <c r="T43" s="10">
+        <f t="shared" ref="T43" si="18">P43+R43</f>
+        <v>246.60000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1"/>
@@ -3792,13 +4125,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7C856-4D92-4C40-A383-D2F62D797670}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5298,6 +5631,120 @@
       </c>
       <c r="M38" s="8"/>
     </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.1875</v>
+      </c>
+      <c r="D41">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.06</v>
+      </c>
+      <c r="F41">
+        <v>8.6E-3</v>
+      </c>
+      <c r="G41">
+        <v>1.5</v>
+      </c>
+      <c r="H41">
+        <v>1.29</v>
+      </c>
+      <c r="I41">
+        <v>9.3260869565217383E-2</v>
+      </c>
+      <c r="J41">
+        <v>4.0920716112531973E-2</v>
+      </c>
+      <c r="K41">
+        <v>5.2369077306733167E-2</v>
+      </c>
+      <c r="L41">
+        <v>3.9506172839506172E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D42">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E42">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F42">
+        <v>1.5162162162162162E-2</v>
+      </c>
+      <c r="G42">
+        <v>1.5</v>
+      </c>
+      <c r="H42">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="I42">
+        <v>0.11434782608695652</v>
+      </c>
+      <c r="J42">
+        <v>5.9335038363171354E-2</v>
+      </c>
+      <c r="K42">
+        <v>5.0374064837905241E-2</v>
+      </c>
+      <c r="L42">
+        <v>2.6337448559670781E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.153</v>
+      </c>
+      <c r="D43">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F43">
+        <v>8.8071428571428571E-3</v>
+      </c>
+      <c r="G43">
+        <v>1.5</v>
+      </c>
+      <c r="H43">
+        <v>1.2329999999999999</v>
+      </c>
+      <c r="I43">
+        <v>1.9565217391304349E-2</v>
+      </c>
+      <c r="J43">
+        <v>1.0230179028132993E-2</v>
+      </c>
+      <c r="K43">
+        <v>1.8703241895261843E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.3168724279835391E-2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1"/>
@@ -5308,13 +5755,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6814,6 +7261,120 @@
       </c>
       <c r="M38" s="8"/>
     </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.1875</v>
+      </c>
+      <c r="D39">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.06</v>
+      </c>
+      <c r="F39">
+        <v>8.6E-3</v>
+      </c>
+      <c r="G39">
+        <v>1.5</v>
+      </c>
+      <c r="H39">
+        <v>1.29</v>
+      </c>
+      <c r="I39">
+        <v>9.3260869565217383E-2</v>
+      </c>
+      <c r="J39">
+        <v>4.0920716112531973E-2</v>
+      </c>
+      <c r="K39">
+        <v>5.2369077306733167E-2</v>
+      </c>
+      <c r="L39">
+        <v>3.9506172839506172E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D40">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F40">
+        <v>1.5162162162162162E-2</v>
+      </c>
+      <c r="G40">
+        <v>1.5</v>
+      </c>
+      <c r="H40">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.11434782608695652</v>
+      </c>
+      <c r="J40">
+        <v>5.9335038363171354E-2</v>
+      </c>
+      <c r="K40">
+        <v>5.0374064837905241E-2</v>
+      </c>
+      <c r="L40">
+        <v>2.6337448559670781E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.153</v>
+      </c>
+      <c r="D41">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F41">
+        <v>8.8071428571428571E-3</v>
+      </c>
+      <c r="G41">
+        <v>1.5</v>
+      </c>
+      <c r="H41">
+        <v>1.2329999999999999</v>
+      </c>
+      <c r="I41">
+        <v>1.9565217391304349E-2</v>
+      </c>
+      <c r="J41">
+        <v>1.0230179028132993E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.8703241895261843E-2</v>
+      </c>
+      <c r="L41">
+        <v>1.3168724279835391E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L38" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C058509-44C2-4376-A28C-1520A5072833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39259B68-C055-4C02-9547-C3E07FC05BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="1935" windowWidth="21600" windowHeight="12195" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="30255" yWindow="675" windowWidth="23985" windowHeight="13890" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -712,40 +712,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>輸液｜YDソリタ-T1号輸液</t>
-    <rPh sb="0" eb="2">
-      <t>ユエキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ユエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸液｜YDソリタ-T3号輸液</t>
-    <rPh sb="0" eb="2">
-      <t>ユエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸液｜YDソリタ-T3号G輸液</t>
-    <rPh sb="0" eb="2">
-      <t>ユエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輸液｜ソリタ-T4号輸液</t>
-    <rPh sb="0" eb="2">
-      <t>ユエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>蛋白｜アミノレバン点滴静注</t>
     <rPh sb="0" eb="2">
       <t>タンパク</t>
@@ -857,16 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>輸液｜生食</t>
-    <rPh sb="0" eb="2">
-      <t>ユエキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>糖質｜5%ブドウ糖注</t>
     <rPh sb="0" eb="2">
       <t>トウシツ</t>
@@ -1050,6 +1006,35 @@
   </si>
   <si>
     <t>経口｜アイソカルサポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜生食</t>
+    <rPh sb="3" eb="5">
+      <t>セイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜YDソリタ-T1号輸液</t>
+    <rPh sb="11" eb="12">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜YDソリタ-T3号G輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜YDソリタ-T3号輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜ソリタ-T4号輸液</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3861,7 +3846,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B41" s="10">
         <v>200</v>
@@ -3913,7 +3898,7 @@
         <v>150</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" ref="Q41:R41" si="13">D41*4</f>
+        <f t="shared" ref="Q41" si="13">D41*4</f>
         <v>42</v>
       </c>
       <c r="R41" s="10">
@@ -3931,7 +3916,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B42" s="10">
         <v>200</v>
@@ -4001,7 +3986,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B43" s="10">
         <v>200</v>
@@ -5633,7 +5618,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5671,7 +5656,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5709,7 +5694,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5761,7 +5746,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6093,7 +6078,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -6132,7 +6117,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -6171,7 +6156,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -6210,7 +6195,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -6249,7 +6234,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -6288,7 +6273,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -6327,7 +6312,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -6366,7 +6351,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -6444,7 +6429,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -6483,7 +6468,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -6522,7 +6507,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -6561,7 +6546,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -6600,7 +6585,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -6639,7 +6624,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -6678,7 +6663,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -6717,7 +6702,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -6756,7 +6741,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -6795,7 +6780,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -6834,7 +6819,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -6873,7 +6858,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -6912,7 +6897,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
@@ -6951,7 +6936,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -6990,7 +6975,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -7029,7 +7014,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -7068,7 +7053,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -7107,7 +7092,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -7146,7 +7131,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -7185,7 +7170,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -7224,7 +7209,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -7263,7 +7248,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7301,7 +7286,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7339,7 +7324,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>1</v>

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39259B68-C055-4C02-9547-C3E07FC05BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A153584F-359F-48F7-BB5D-DDEACFB036D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="675" windowWidth="23985" windowHeight="13890" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="6480" yWindow="750" windowWidth="21555" windowHeight="14850" activeTab="1" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -1035,6 +1035,82 @@
   </si>
   <si>
     <t>補液｜ソリタ-T4号輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>液量
+（mL）</t>
+    <rPh sb="0" eb="2">
+      <t>エキリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炭水化物
+（g）</t>
+    <rPh sb="0" eb="4">
+      <t>タンスイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アミノ酸
+（g）</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質
+（g）</t>
+    <rPh sb="0" eb="2">
+      <t>シシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窒素
+（g）</t>
+    <rPh sb="0" eb="2">
+      <t>チッソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリー
+（kcal）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非たんぱく熱量
+（kcal）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Na
+（mEq）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K
+（mEq）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ca
+（mEq）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mg
+（mEq）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4112,11 +4188,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7C856-4D92-4C40-A383-D2F62D797670}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41:L43"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4134,42 +4210,42 @@
     <col min="14" max="14" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="37.5">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
+      <c r="B1" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>14</v>
+        <v>103</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -5742,7 +5818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A153584F-359F-48F7-BB5D-DDEACFB036D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A9DF05-7614-4C12-911C-2AB3F094C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="750" windowWidth="21555" windowHeight="14850" activeTab="1" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
@@ -1038,14 +1038,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>液量
-（mL）</t>
-    <rPh sb="0" eb="2">
-      <t>エキリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>炭水化物
 （g）</t>
     <rPh sb="0" eb="4">
@@ -1111,6 +1103,14 @@
   <si>
     <t>Mg
 （mEq）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>液量  
+（mL）</t>
+    <rPh sb="0" eb="2">
+      <t>エキリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4192,7 +4192,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4215,37 +4215,37 @@
         <v>56</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="M1" s="8"/>
     </row>

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A9DF05-7614-4C12-911C-2AB3F094C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD2A757-9C50-4B36-8706-A483E58AE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="750" windowWidth="21555" windowHeight="14850" activeTab="1" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="6480" yWindow="750" windowWidth="21555" windowHeight="14850" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -1038,78 +1038,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>炭水化物
+    <t>液量
+（mL）</t>
+    <rPh sb="0" eb="2">
+      <t>エキリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炭水化物  
 （g）</t>
     <rPh sb="0" eb="4">
       <t>タンスイカブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アミノ酸
-（g）</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脂質
-（g）</t>
-    <rPh sb="0" eb="2">
-      <t>シシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窒素
-（g）</t>
-    <rPh sb="0" eb="2">
-      <t>チッソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カロリー
-（kcal）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非たんぱく熱量
-（kcal）</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネツリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Na
-（mEq）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K
-（mEq）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ca
-（mEq）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mg
-（mEq）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>液量  
-（mL）</t>
-    <rPh sb="0" eb="2">
-      <t>エキリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4188,11 +4128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7C856-4D92-4C40-A383-D2F62D797670}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4215,37 +4155,37 @@
         <v>56</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -5818,11 +5758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5840,15 +5780,15 @@
     <col min="14" max="14" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="37.5">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
+      <c r="B1" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>57</v>

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD2A757-9C50-4B36-8706-A483E58AE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3AC90-C967-4DEA-BB60-6D0464F57280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="750" windowWidth="21555" windowHeight="14850" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -1035,22 +1035,6 @@
   </si>
   <si>
     <t>補液｜ソリタ-T4号輸液</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>液量
-（mL）</t>
-    <rPh sb="0" eb="2">
-      <t>エキリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>炭水化物  
-（g）</t>
-    <rPh sb="0" eb="4">
-      <t>タンスイカブツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5762,7 +5746,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5780,15 +5764,15 @@
     <col min="14" max="14" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>57</v>
